--- a/DragAndDrop/Assets/5.Data/Lightning_ball_controller_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Lightning_ball_controller_excel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\Junhee_git\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC40B704-7414-4AC0-9F4E-B0DCA3564E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE29440F-57D1-4B75-B361-0B0CEEBED849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF29A2-F376-4D98-8DEB-D63BF7A23E48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -593,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -604,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,11 +669,12 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DragAndDrop/Assets/5.Data/Lightning_ball_controller_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Lightning_ball_controller_excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\Junhee_git\idle\DragAndDrop\Assets\5.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35FF423-80C9-4099-90F8-E2D53DBCCFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2265" yWindow="1485" windowWidth="8865" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,11 +419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,211 +455,596 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>82.5</v>
+        <v>81.5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>87</v>
+        <v>82.5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>87.4</v>
+        <v>82.7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>87.8</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>88.5</v>
+        <v>84.2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>93</v>
+        <v>85.5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>93.4</v>
+        <v>85.7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>93.8</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>94.5</v>
+        <v>87.4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>106.5</v>
+        <v>87.8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>111</v>
+        <v>88.5</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>111.4</v>
+        <v>88.7</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.33</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>111.8</v>
+        <v>91.5</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>112.5</v>
+        <v>91.7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>117.4</v>
+        <v>93.4</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>117.8</v>
+        <v>93.8</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>118.5</v>
+        <v>94</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>94.5</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>94.9</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>95.65</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>96.4</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>97.15</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>97.9</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>98.65</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>99.1</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>100.15</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>100.4</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>102.4</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>103.15</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>103.9</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>104.65</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>105.5</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>106.5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>106.7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>108.2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>109.5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>109.7</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>111</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>111.4</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>111.8</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>112.5</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>112.7</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>115.5</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>115.7</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>117.4</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>117.8</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>118.5</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>128.5</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
